--- a/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
+++ b/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T18:59:02+00:00</t>
+    <t>2021-11-29T18:20:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
+++ b/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:20:37+00:00</t>
+    <t>2021-11-29T18:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
+++ b/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:24:57+00:00</t>
+    <t>2021-11-29T18:48:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
+++ b/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:48:09+00:00</t>
+    <t>2021-11-30T19:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
+++ b/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T19:25:31+00:00</t>
+    <t>2021-12-02T21:15:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
+++ b/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T21:15:02+00:00</t>
+    <t>2021-12-09T00:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
+++ b/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T00:03:23+00:00</t>
+    <t>2021-12-09T17:37:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
+++ b/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T17:37:25+00:00</t>
+    <t>2021-12-09T21:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
+++ b/StructureDefinition-bc-death-date-flag-business-period-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T21:10:46+00:00</t>
+    <t>2021-12-10T17:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
